--- a/Data/EC/NIT-8600077389.xlsx
+++ b/Data/EC/NIT-8600077389.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB6E7AE-0899-4048-A375-1E64756D975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C419C33-DB3B-4024-ACA2-E6BBDAC1C298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ABD7A5D6-70F0-4F0B-B97E-941B9D3057DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E63445A-FED4-4312-B6FF-7816CC129FEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="98">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,211 +71,232 @@
     <t>DANILO DAVID GALVAN BABILONIA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
+    <t>9265324</t>
+  </si>
+  <si>
+    <t>WILLIAM ARMANDO PEREZ ANTEQUERA</t>
+  </si>
+  <si>
+    <t>73083273</t>
+  </si>
+  <si>
+    <t>ORLANDO ECHEVERRI JORDI</t>
+  </si>
+  <si>
+    <t>9283616</t>
+  </si>
+  <si>
+    <t>EUSEBIO TEOFILO CANTILLO ACUÑA</t>
+  </si>
+  <si>
+    <t>22739677</t>
+  </si>
+  <si>
+    <t>SUSANA PAOLA QUINTERO RIPOLL</t>
   </si>
   <si>
     <t>1110487522</t>
   </si>
   <si>
     <t>JENNY LORENA TORO MORENO</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>22739677</t>
-  </si>
-  <si>
-    <t>SUSANA PAOLA QUINTERO RIPOLL</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -689,7 +710,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655DCBA1-8C53-A4DA-3A68-453F800FD59C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405E4BA0-9F6B-D2F5-4705-E6F285A3B292}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,8 +1061,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B25D8-D115-49C2-8E70-D87D1B1DD08A}">
-  <dimension ref="B2:J148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B5362B-EF12-47E0-B228-9C08FBEE3FFD}">
+  <dimension ref="B2:J164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1052,7 +1073,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1065,7 +1086,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1110,7 +1131,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1142,12 +1163,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10984733</v>
+        <v>13160479</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1158,17 +1179,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1195,13 +1216,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1669,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1698,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>91597</v>
@@ -1715,19 +1736,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1738,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1767,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>91597</v>
@@ -1784,19 +1805,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1813,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>91597</v>
@@ -1836,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>91597</v>
@@ -1853,19 +1874,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1876,19 +1897,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1905,7 +1926,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>91597</v>
@@ -1928,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>91597</v>
@@ -1945,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1968,19 +1989,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G49" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1997,7 +2018,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>91597</v>
@@ -2020,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>91597</v>
@@ -2037,19 +2058,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G52" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2066,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>91597</v>
@@ -2083,19 +2104,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2106,19 +2127,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2135,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>91597</v>
@@ -2158,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>91597</v>
@@ -2175,19 +2196,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G58" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2204,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>91597</v>
@@ -2221,19 +2242,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G60" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2250,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>91597</v>
@@ -2267,19 +2288,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G62" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2290,19 +2311,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2319,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>91597</v>
@@ -2342,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>91597</v>
@@ -2359,19 +2380,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G66" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2388,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>91597</v>
@@ -2405,19 +2426,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G68" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2428,19 +2449,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G69" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2457,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>91597</v>
@@ -2480,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>91597</v>
@@ -2497,19 +2518,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2526,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>91597</v>
@@ -2543,19 +2564,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2572,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
         <v>91597</v>
@@ -2589,19 +2610,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G76" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2612,19 +2633,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2641,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>91597</v>
@@ -2658,19 +2679,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>40000</v>
+        <v>91597</v>
       </c>
       <c r="G79" s="18">
-        <v>1000000</v>
+        <v>2289933</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2687,7 +2708,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
         <v>91597</v>
@@ -2710,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>91597</v>
@@ -2727,19 +2748,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>241978</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>6049447</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2750,19 +2771,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F83" s="18">
-        <v>91597</v>
+        <v>151658</v>
       </c>
       <c r="G83" s="18">
-        <v>2289933</v>
+        <v>3791473</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2773,19 +2794,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>151658</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>3791473</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2796,19 +2817,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>151658</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>3791473</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2819,19 +2840,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F86" s="18">
-        <v>91597</v>
+        <v>151658</v>
       </c>
       <c r="G86" s="18">
-        <v>2289933</v>
+        <v>3791473</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2842,19 +2863,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F87" s="18">
-        <v>40000</v>
+        <v>151658</v>
       </c>
       <c r="G87" s="18">
-        <v>1000000</v>
+        <v>3791473</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2865,19 +2886,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F88" s="18">
-        <v>91597</v>
+        <v>151658</v>
       </c>
       <c r="G88" s="18">
-        <v>2289933</v>
+        <v>3791473</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2888,19 +2909,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F89" s="18">
-        <v>91597</v>
+        <v>115465</v>
       </c>
       <c r="G89" s="18">
-        <v>2289933</v>
+        <v>2886640</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2911,19 +2932,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F90" s="18">
-        <v>40000</v>
+        <v>115465</v>
       </c>
       <c r="G90" s="18">
-        <v>1000000</v>
+        <v>2886640</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2934,19 +2955,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F91" s="18">
-        <v>91597</v>
+        <v>115465</v>
       </c>
       <c r="G91" s="18">
-        <v>2289933</v>
+        <v>2886640</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2957,19 +2978,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>115465</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>2886640</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2980,19 +3001,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F93" s="18">
-        <v>40000</v>
+        <v>115465</v>
       </c>
       <c r="G93" s="18">
-        <v>1000000</v>
+        <v>2886640</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3003,19 +3024,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F94" s="18">
-        <v>91597</v>
+        <v>115465</v>
       </c>
       <c r="G94" s="18">
-        <v>2289933</v>
+        <v>2886640</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3026,19 +3047,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>199433</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>4985823</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3049,19 +3070,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F96" s="18">
-        <v>91597</v>
+        <v>199433</v>
       </c>
       <c r="G96" s="18">
-        <v>2289933</v>
+        <v>4985823</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3072,13 +3093,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F97" s="18">
         <v>199433</v>
@@ -3095,19 +3116,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F98" s="18">
-        <v>40000</v>
+        <v>199433</v>
       </c>
       <c r="G98" s="18">
-        <v>1000000</v>
+        <v>4985823</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3118,19 +3139,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F99" s="18">
-        <v>91597</v>
+        <v>199433</v>
       </c>
       <c r="G99" s="18">
-        <v>2289933</v>
+        <v>4985823</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3141,13 +3162,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F100" s="18">
         <v>199433</v>
@@ -3164,13 +3185,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F101" s="18">
         <v>199433</v>
@@ -3187,19 +3208,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F102" s="18">
-        <v>91597</v>
+        <v>199433</v>
       </c>
       <c r="G102" s="18">
-        <v>2289933</v>
+        <v>4985823</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3210,19 +3231,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F103" s="18">
-        <v>40000</v>
+        <v>199433</v>
       </c>
       <c r="G103" s="18">
-        <v>1000000</v>
+        <v>4985823</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3233,19 +3254,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F104" s="18">
-        <v>91597</v>
+        <v>199433</v>
       </c>
       <c r="G104" s="18">
-        <v>2289933</v>
+        <v>4985823</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3256,13 +3277,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F105" s="18">
         <v>199433</v>
@@ -3279,19 +3300,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F106" s="18">
-        <v>40000</v>
+        <v>199433</v>
       </c>
       <c r="G106" s="18">
-        <v>1000000</v>
+        <v>4985823</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3302,19 +3323,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F107" s="18">
-        <v>91597</v>
+        <v>199433</v>
       </c>
       <c r="G107" s="18">
-        <v>2289933</v>
+        <v>4985823</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3325,19 +3346,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F108" s="18">
-        <v>40000</v>
+        <v>199433</v>
       </c>
       <c r="G108" s="18">
-        <v>1000000</v>
+        <v>4985823</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3348,13 +3369,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F109" s="18">
         <v>199433</v>
@@ -3371,19 +3392,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F110" s="18">
-        <v>91597</v>
+        <v>199433</v>
       </c>
       <c r="G110" s="18">
-        <v>2289933</v>
+        <v>4985823</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3394,19 +3415,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F111" s="18">
-        <v>40000</v>
+        <v>199433</v>
       </c>
       <c r="G111" s="18">
-        <v>1000000</v>
+        <v>4985823</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3417,19 +3438,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F112" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3440,19 +3461,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F113" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G113" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3463,13 +3484,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="F114" s="18">
         <v>40000</v>
@@ -3486,19 +3507,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F115" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G115" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3509,19 +3530,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F116" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G116" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3532,13 +3553,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F117" s="18">
         <v>40000</v>
@@ -3555,19 +3576,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F118" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3578,13 +3599,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F119" s="18">
         <v>40000</v>
@@ -3601,19 +3622,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F120" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G120" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3624,19 +3645,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="F121" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G121" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3647,19 +3668,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="F122" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G122" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3670,13 +3691,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F123" s="18">
         <v>40000</v>
@@ -3693,19 +3714,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F124" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G124" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3716,19 +3737,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F125" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G125" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3739,13 +3760,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="F126" s="18">
         <v>40000</v>
@@ -3762,19 +3783,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="F127" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G127" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3785,13 +3806,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="F128" s="18">
         <v>40000</v>
@@ -3808,19 +3829,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F129" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G129" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3831,19 +3852,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="F130" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G130" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3854,13 +3875,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F131" s="18">
         <v>40000</v>
@@ -3877,19 +3898,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F132" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G132" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3900,19 +3921,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="F133" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G133" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3923,13 +3944,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="F134" s="18">
         <v>40000</v>
@@ -3946,19 +3967,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F135" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G135" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3969,19 +3990,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F136" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G136" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3992,13 +4013,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F137" s="18">
         <v>40000</v>
@@ -4015,19 +4036,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F138" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G138" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4038,19 +4059,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F139" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G139" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4061,19 +4082,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="F140" s="18">
-        <v>199433</v>
+        <v>40000</v>
       </c>
       <c r="G140" s="18">
-        <v>4985823</v>
+        <v>1000000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4084,75 +4105,443 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F141" s="18">
-        <v>91597</v>
+        <v>40000</v>
       </c>
       <c r="G141" s="18">
-        <v>2289933</v>
+        <v>1000000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F142" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G142" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H142" s="25"/>
-      <c r="I142" s="25"/>
-      <c r="J142" s="26"/>
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G142" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F143" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G143" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G144" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F145" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G145" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G146" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C147" s="32"/>
-      <c r="H147" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
+      <c r="B147" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F147" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G147" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C148" s="32"/>
-      <c r="H148" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="B148" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G148" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F149" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G149" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G150" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F151" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G151" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F152" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G152" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F153" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G153" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F154" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G154" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G155" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B156" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F156" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G156" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="20"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F157" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G157" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="20"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B158" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F158" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G158" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="26"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B163" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C163" s="32"/>
+      <c r="H163" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B164" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C164" s="32"/>
+      <c r="H164" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="H163:J163"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
